--- a/datamining/final_data/sorted1991_nltk.xlsx
+++ b/datamining/final_data/sorted1991_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMW2"/>
+  <dimension ref="A1:AKW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,19 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gifted</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>gifted</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>review</t>
@@ -472,17 +472,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>reform</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>students</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>school-reform</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -492,359 +492,359 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>school-reform</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>children</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>program</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>research</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>media</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>bilingual</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>early</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>bilingual</t>
+          <t>enlightened</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>self-interest</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>readers</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>state</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>pull-out</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>readers</t>
+          <t>college</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>efforts</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>enlightened</t>
+          <t>school</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>self-interest</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>response</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>pull-out</t>
+          <t>article</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>national</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>average</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>building</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>center</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>also</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>socioemotional</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>overhauling</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>bandwagons</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>years</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>socioemotional</t>
+          <t>build</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>jp</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
+          <t>rosenstein</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>teaching</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>parker</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>instructional</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
           <t>metacognitive</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>giftedness</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>adolescent</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>instructional</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>acceleration</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>parker</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>jp</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>certification/endorsement</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>teaching</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>overhauling</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>build</t>
-        </is>
-      </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>rosenstein</t>
+          <t>states</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>bandwagons</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>underway</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>albert</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>theories</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>underway</t>
+          <t>rs</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>runco</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>development</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>''</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>``</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
+          <t>contributions</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>reliability</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>entrance</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
           <t>reading</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>partnerships</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>reliability</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>contributions</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>entrance</t>
-        </is>
-      </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>student</t>
@@ -852,887 +852,887 @@
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>partnerships</t>
+          <t>underrepresentation</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>''</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>``</t>
+          <t>design</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>raising</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
+          <t>toddler</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>alvino</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>critical</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>residential</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>briggs</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>crucible</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>institutions</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>fire</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
           <t>need</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>minority</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresentation</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>genius</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>self-creation</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>programming</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>overview</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>residential</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>impact</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>ma</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>albert</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>rs</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>programming</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>runco</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>theories</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>snyderman</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>iq</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>rothman</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>public-policy</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>eby</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>controversy</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>thoughtful</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>smutny</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>jw</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>jf</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>md</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>intelligence</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>heredity</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>mandate</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>institutions</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>eby</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>jf</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>jw</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>thoughtful</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>studies</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>storfer</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>products</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>intelligence</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>enrolled</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>storfer</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>heredity</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>so</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>alvino</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>toddler</t>
-        </is>
-      </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>raising</t>
+          <t>made</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>centers</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>crucible</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>genius</t>
+          <t>special</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>briggs</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>exist</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>self-creation</t>
+          <t>high</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>importance</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>author</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>elements</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>advocates</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>content</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>model</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>centers</t>
+          <t>current</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>importance</t>
+          <t>become</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>practices</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>advocates</t>
+          <t>new</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>elements</t>
+          <t>graduate</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>degree</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>requirements</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>dissemination</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>public-policy</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>snyderman</t>
+          <t>right</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>rothman</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>important</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>currently</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>points</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>controversy</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>graduate</t>
+          <t>peter</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>degree</t>
+          <t>united</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>requirements</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>practices</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>currently</t>
+          <t>improvement</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>nonreaders</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>discussions</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>experts</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>priority</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>points</t>
+          <t>universities</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>stanley</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>needed</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>dissemination</t>
+          <t>several</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>reviewed</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>nonreaders</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>local</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>improvement</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>united</t>
+          <t>within</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>peter</t>
+          <t>two</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>data</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>values</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>working</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>discussions</t>
+          <t>level</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>reviewed</t>
+          <t>results</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>priority</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>access</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>future</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>universities</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>experts</t>
+          <t>conducting</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>persons</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>vigorous</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>critique</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>needed</t>
+          <t>emphasis</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>stanley</t>
+          <t>news</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>values</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>instruments</t>
+          <t>able</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>past</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>working</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>discusses</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>family</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>lack</t>
+          <t>information</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>conducting</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>superior</t>
+          <t>used</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>access</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>vigorous</t>
+          <t>flexible</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>past</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>certification</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>consistent</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>emphasis</t>
+          <t>operated</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>age</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>persons</t>
+          <t>subjects</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>news</t>
+          <t>services</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>discusses</t>
+          <t>advocate</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>half</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>flexible</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>advancing</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>flexibility</t>
+          <t>use</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>emphasized</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>association</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>public</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>certification</t>
+          <t>four</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>without</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>know</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>consistent</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>process</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>few</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>critique</t>
+          <t>continued</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>crisis</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>participating</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>described</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>subjects</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>usually</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>without</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>operated</t>
+          <t>great</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>active</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>advocate</t>
+          <t>university</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>could</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>less</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>smpy</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>participating</t>
+          <t>mathematically</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>clear</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>crisis</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>continued</t>
+          <t>fewer</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>order</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
@@ -1742,3877 +1742,3617 @@
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>types</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>advancing</t>
+          <t>present</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>included</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>fewer</t>
+          <t>measuring</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>given</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>those</t>
+          <t>young</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>mathematically</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>among</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>word</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>emphasized</t>
+          <t>delphi</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>federal</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>benefit</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>smpy</t>
+          <t>major</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>30</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>female</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>accelerants</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>measuring</t>
+          <t>term</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>strengthen</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>action</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>six</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>presents</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>change</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>panel</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>assess</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>throughout</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>usually</t>
+          <t>maximum</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>accelerants</t>
+          <t>cooperative</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>competencies</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>cooperative</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>ensure</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>essential</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>responsive</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>available</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>competencies</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>strengthen</t>
+          <t>often</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>maximum</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>must</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>throughout</t>
+          <t>practitioners</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>excellence</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>panel</t>
+          <t>movements</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>term</t>
+          <t>component</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>using</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>preparation</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>provides</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>must</t>
+          <t>involved</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>ensure</t>
+          <t>highlights</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>delphi</t>
+          <t>powerful</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>commitment</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>directions</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>movements</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>english</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>rational</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>federal</t>
+          <t>traces</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>excellence</t>
+          <t>intersect</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>course</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>learner</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>responsive</t>
+          <t>proficient</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>practitioners</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>common</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>involved</t>
+          <t>background</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>essential</t>
+          <t>models</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>survived</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>serving</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>public-relations</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>traces</t>
+          <t>economic</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>make</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>adolescents</t>
+          <t>productivity</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>bases</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>introduced</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>including</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>england</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>upon</t>
+          <t>various</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>powerful</t>
+          <t>taken</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>component</t>
+          <t>address</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>rational</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>bases</t>
+          <t>despite</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>survived</t>
+          <t>exemplary</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>commitment</t>
+          <t>dispiayed</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>public-relations</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>50</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>american</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>proficient</t>
+          <t>dettmer</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>economic</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>introduced</t>
+          <t>climate</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>serving</t>
+          <t>looks</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>learner</t>
+          <t>first</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>highlights</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>productivity</t>
+          <t>urges</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>transform</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>intersect</t>
+          <t>department</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>surveyed</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>england</t>
+          <t>determirie</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>status</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>directions</t>
+          <t>slates</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>despite</t>
+          <t>directors</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>responses</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>help</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>periodic</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>guest</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>exemplary</t>
+          <t>fullest</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>american</t>
+          <t>argues</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>argues</t>
+          <t>executive</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
+          <t>director</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>endorsement</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>nine</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>entering</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>mr.</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>peggy</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>adjustments</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>callahan</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>cornell</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>dr.</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>julian</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>responds</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>loyd</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>since</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>reply</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>talents</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>subtests</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>solved</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>regardless</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>indicated</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>nagc</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>underage</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>improve</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
           <t>innovations</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>improve</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>context</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>climate</t>
-        </is>
-      </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>briefly</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>defined</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>definitive</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>educationally</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>extremely</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>follow-up</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>graduates</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>high-schools-within-college</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>knowledgeable</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>criteria</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>regardless</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>since</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>responds</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>creatively</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>peggy</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>dettmer</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>longer-term</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>october</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>director</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>nagc</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>mr.</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>interview</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>serve</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>perceived</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>fullest</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>talents</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>rigid</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>solved</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>determirie</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>directors</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>endorsement</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>mentioned</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>occupational</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>questioned</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>spectacularly</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>graphically</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>guest</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>looks</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>periodic</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>surveyed</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>she</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>transform</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>urges</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>reported</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>responses</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>slates</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>executive</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>dispiayed</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>subtests</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>nine</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>taken</t>
-        </is>
-      </c>
       <c r="QA1" s="1" t="inlineStr">
         <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
           <t>interaction</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
       <c r="QC1" s="1" t="inlineStr">
         <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>weaknesses</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>professionals</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>creative</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>occurs</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>appropriate</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>example</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>closely</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>findings</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>formal</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>scoring</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>seldom</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>techniques</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>validation</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
           <t>well</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>cornell</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>briefly</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>dr.</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>julian</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>loyd</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>conduct</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>pupils</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>interrater</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
         <is>
           <t>based</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>underage</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>found</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>defined</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>indicated</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>reply</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>educationally</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>longer-term</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>spectacularly</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>questioned</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>occupational</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>adjustments</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>entering</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>high-schools-within-college</t>
-        </is>
-      </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>callahan</t>
+          <t>enhance</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>graduates</t>
+          <t>strengths</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>collaboratives</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>follow-up</t>
+          <t>project</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>embedded</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>extremely</t>
+          <t>agreement</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>definitive</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>then</t>
+          <t>child</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>occurs</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>master</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>much</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>proactive</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>obtained</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>interrater</t>
+          <t>management</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>shaped</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>let</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>scoring</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>seldom</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>techniques</t>
+          <t>site-based</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>validation</t>
+          <t>accountability-rest</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>agreement</t>
+          <t>group</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>shaped</t>
+          <t>reforms-search</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>steps</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>turn</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>carries</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>citizens</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
           <t>educational-reform</t>
         </is>
       </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>reforms-search</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>site-based</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>cultural</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>steps</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
+      <c r="SL1" s="1" t="inlineStr">
         <is>
           <t>reforms</t>
         </is>
       </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>proposed</t>
+          <t>format</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>proactive</t>
+          <t>releases</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>features</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>much</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>implemented</t>
+          <t>dealt</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>affected</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>master</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>studying</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>selecting</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>targeting</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>urban</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>preparing</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>practical</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>appropriate</t>
+          <t>personnel</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>matrix</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>accountability-rest</t>
+          <t>newsworthy</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>newsletter</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
-          <t>closely</t>
+          <t>making</t>
         </is>
       </c>
       <c r="TF1" s="1" t="inlineStr">
         <is>
-          <t>collaboratives</t>
+          <t>via</t>
         </is>
       </c>
       <c r="TG1" s="1" t="inlineStr">
         <is>
-          <t>conduct</t>
+          <t>include</t>
         </is>
       </c>
       <c r="TH1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>self-concepts</t>
         </is>
       </c>
       <c r="TI1" s="1" t="inlineStr">
         <is>
-          <t>embedded</t>
+          <t>quantified</t>
         </is>
       </c>
       <c r="TJ1" s="1" t="inlineStr">
         <is>
-          <t>enhance</t>
+          <t>television</t>
         </is>
       </c>
       <c r="TK1" s="1" t="inlineStr">
         <is>
-          <t>weaknesses</t>
+          <t>writing</t>
         </is>
       </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
-          <t>example</t>
+          <t>tricks</t>
         </is>
       </c>
       <c r="TM1" s="1" t="inlineStr">
         <is>
-          <t>partnership</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="TN1" s="1" t="inlineStr">
         <is>
-          <t>carries</t>
+          <t>meta-analyses</t>
         </is>
       </c>
       <c r="TO1" s="1" t="inlineStr">
         <is>
-          <t>citizens</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="TP1" s="1" t="inlineStr">
         <is>
-          <t>strengths</t>
+          <t>located</t>
         </is>
       </c>
       <c r="TQ1" s="1" t="inlineStr">
         <is>
-          <t>professionals</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="TR1" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>evaluate</t>
         </is>
       </c>
       <c r="TS1" s="1" t="inlineStr">
         <is>
-          <t>setting</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>image</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>self-perception</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>predictive</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>television</t>
+          <t>inequities</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>tricks</t>
+          <t>adjust</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>york</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>targeting</t>
+          <t>effectively</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>selecting</t>
+          <t>cultivating</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>releases</t>
+          <t>driver-rider</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>seen</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>inequities</t>
+          <t>screening</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>writing</t>
+          <t>10</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
+          <t>employing</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>almost</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>requiring</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>prospective</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>financial</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>mandatory</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>associated</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>assuring</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>promoted</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>every</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>enhanced</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>differentiated</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>presentations</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
           <t>difficulties</t>
         </is>
       </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>presentations</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>differentiated</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>assuring</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>associated</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>almost</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>contacts</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>profile</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>predicted</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>perspectives</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>incentives</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>appealing</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>mandates</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>conferences</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>jackson</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
         <is>
           <t>radio</t>
         </is>
       </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>every</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>preparing</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>located</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>meta-analyses</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>meta-analysis</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>conferences</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
+      <c r="VN1" s="1" t="inlineStr">
         <is>
           <t>concept</t>
         </is>
       </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>appealing</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>quantified</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>self-concept</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>via</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>practical</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>incentives</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>york</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>seen</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>requiring</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>promoted</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>mandatory</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>mandates</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>experimental</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>evaluate</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveness</t>
-        </is>
-      </c>
       <c r="VO1" s="1" t="inlineStr">
         <is>
-          <t>financial</t>
+          <t>one</t>
         </is>
       </c>
       <c r="VP1" s="1" t="inlineStr">
         <is>
-          <t>personnel</t>
+          <t>reporting</t>
         </is>
       </c>
       <c r="VQ1" s="1" t="inlineStr">
         <is>
-          <t>newsworthy</t>
+          <t>offers</t>
         </is>
       </c>
       <c r="VR1" s="1" t="inlineStr">
         <is>
-          <t>newsletter</t>
+          <t>sources</t>
         </is>
       </c>
       <c r="VS1" s="1" t="inlineStr">
         <is>
-          <t>matrix</t>
+          <t>update</t>
         </is>
       </c>
       <c r="VT1" s="1" t="inlineStr">
         <is>
-          <t>making</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="VU1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>requests</t>
         </is>
       </c>
       <c r="VV1" s="1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>surveys</t>
         </is>
       </c>
       <c r="VW1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>published</t>
         </is>
       </c>
       <c r="VX1" s="1" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="VY1" s="1" t="inlineStr">
         <is>
-          <t>feature</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="VZ1" s="1" t="inlineStr">
         <is>
-          <t>last</t>
+          <t>additional</t>
         </is>
       </c>
       <c r="WA1" s="1" t="inlineStr">
         <is>
-          <t>enhanced</t>
+          <t>offering</t>
         </is>
       </c>
       <c r="WB1" s="1" t="inlineStr">
         <is>
-          <t>employing</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="WC1" s="1" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>listed</t>
         </is>
       </c>
       <c r="WD1" s="1" t="inlineStr">
         <is>
-          <t>cultivating</t>
+          <t>directory</t>
         </is>
       </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>affected</t>
+          <t>conjunction</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
-          <t>contacts</t>
+          <t>colleges</t>
         </is>
       </c>
       <c r="WG1" s="1" t="inlineStr">
         <is>
-          <t>dealt</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="WH1" s="1" t="inlineStr">
         <is>
-          <t>self-concepts</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="WI1" s="1" t="inlineStr">
         <is>
-          <t>driver-rider</t>
+          <t>127</t>
         </is>
       </c>
       <c r="WJ1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="WK1" s="1" t="inlineStr">
         <is>
-          <t>studying</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="WL1" s="1" t="inlineStr">
         <is>
-          <t>profile</t>
+          <t>25</t>
         </is>
       </c>
       <c r="WM1" s="1" t="inlineStr">
         <is>
-          <t>prior</t>
+          <t>updating</t>
         </is>
       </c>
       <c r="WN1" s="1" t="inlineStr">
         <is>
-          <t>predictive</t>
+          <t>technology</t>
         </is>
       </c>
       <c r="WO1" s="1" t="inlineStr">
         <is>
-          <t>predicted</t>
+          <t>suggests</t>
         </is>
       </c>
       <c r="WP1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>science</t>
         </is>
       </c>
       <c r="WQ1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>bringing</t>
         </is>
       </c>
       <c r="WR1" s="1" t="inlineStr">
         <is>
-          <t>outcome</t>
+          <t>accessible</t>
         </is>
       </c>
       <c r="WS1" s="1" t="inlineStr">
         <is>
-          <t>prospective</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="WT1" s="1" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>collaboration</t>
         </is>
       </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>key</t>
         </is>
       </c>
       <c r="WV1" s="1" t="inlineStr">
         <is>
-          <t>self-perception</t>
+          <t>panelists</t>
         </is>
       </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>responded</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>shared</t>
         </is>
       </c>
       <c r="WY1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="WZ1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>three-part</t>
         </is>
       </c>
       <c r="XA1" s="1" t="inlineStr">
         <is>
-          <t>adjust</t>
+          <t>top</t>
         </is>
       </c>
       <c r="XB1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>although</t>
         </is>
       </c>
       <c r="XC1" s="1" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>united-states</t>
         </is>
       </c>
       <c r="XD1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>best</t>
         </is>
       </c>
       <c r="XE1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>natural</t>
         </is>
       </c>
       <c r="XF1" s="1" t="inlineStr">
         <is>
-          <t>colleges</t>
+          <t>force</t>
         </is>
       </c>
       <c r="XG1" s="1" t="inlineStr">
         <is>
-          <t>offers</t>
+          <t>bring</t>
         </is>
       </c>
       <c r="XH1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>challenging</t>
         </is>
       </c>
       <c r="XI1" s="1" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>today</t>
         </is>
       </c>
       <c r="XJ1" s="1" t="inlineStr">
         <is>
-          <t>conjunction</t>
+          <t>two-way</t>
         </is>
       </c>
       <c r="XK1" s="1" t="inlineStr">
         <is>
-          <t>directory</t>
+          <t>voice</t>
         </is>
       </c>
       <c r="XL1" s="1" t="inlineStr">
         <is>
-          <t>listed</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="XM1" s="1" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="XN1" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>balance</t>
         </is>
       </c>
       <c r="XO1" s="1" t="inlineStr">
         <is>
-          <t>additional</t>
+          <t>careful</t>
         </is>
       </c>
       <c r="XP1" s="1" t="inlineStr">
         <is>
-          <t>offering</t>
+          <t>closer</t>
         </is>
       </c>
       <c r="XQ1" s="1" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>connections</t>
         </is>
       </c>
       <c r="XR1" s="1" t="inlineStr">
         <is>
-          <t>update</t>
+          <t>consideration</t>
         </is>
       </c>
       <c r="XS1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>considers</t>
         </is>
       </c>
       <c r="XT1" s="1" t="inlineStr">
         <is>
-          <t>reporting</t>
+          <t>draws</t>
         </is>
       </c>
       <c r="XU1" s="1" t="inlineStr">
         <is>
-          <t>requests</t>
+          <t>enterprise</t>
         </is>
       </c>
       <c r="XV1" s="1" t="inlineStr">
         <is>
-          <t>published</t>
+          <t>establishing</t>
         </is>
       </c>
       <c r="XW1" s="1" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>focuses</t>
         </is>
       </c>
       <c r="XX1" s="1" t="inlineStr">
         <is>
-          <t>sources</t>
+          <t>general-education</t>
         </is>
       </c>
       <c r="XY1" s="1" t="inlineStr">
         <is>
-          <t>surveys</t>
+          <t>growing</t>
         </is>
       </c>
       <c r="XZ1" s="1" t="inlineStr">
         <is>
-          <t>updating</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="YA1" s="1" t="inlineStr">
         <is>
-          <t>general-education</t>
+          <t>infuse</t>
         </is>
       </c>
       <c r="YB1" s="1" t="inlineStr">
         <is>
+          <t>times</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>suffer</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>styles</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>influencing</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>moreover</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>contribute</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>dialogue</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>dynamism</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>equally</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>forces</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>measurement-driven</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>improving</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>mathematics</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>strengthening</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>lessons</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>linkages</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>minimum</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>nurturing</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>potentials</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>reminds</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>restructuring</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>efficacy</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>constant</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>denver</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>duke</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>leadership</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>educating</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>exceptionally</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>extracurricular</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>facilitating</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>hopkins</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>huge</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>i.e.</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>meager</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>independent</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>johns</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>northwestern</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>dozen</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>large-group</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>combines</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>decades</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>blacks</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>....</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>aptitude</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>began</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>begun</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>behalf</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>creation</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>never</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>operating</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>participation</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>presentation</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>regional</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>sharing</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>sites</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>small-</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>solving</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>successfully</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>threatened</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>together</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>visible</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>wisconsin</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>whereas</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>unrecognized</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>precocious</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>projects</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>scholastic</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>took</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>searching</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>supplemental</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>cities</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>absolute</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>international</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>actions</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>k-12</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>van</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>tassel-baska</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>surprising</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>rates</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>prillaman</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>matters</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>patton</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>particularly</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>minority-students</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>continuing</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>establishment</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>deserves</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>dealing</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>details</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>drop-out</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
           <t>light</t>
         </is>
       </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>international</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>infuse</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>implications</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>growing</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>measurement-driven</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>focuses</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>establishing</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>enterprise</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>draws</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>considers</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>threatened</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>technology</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>together</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>visible</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>suggests</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>science</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>wisconsin</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>collaboration</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>natural</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>moreover</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>linkages</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>mathematics</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>connections</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>consideration</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>restructuring</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>closer</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>reminds</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>bring</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>challenging</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>contribute</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>dialogue</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>dynamism</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>equally</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>forces</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>improving</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>influencing</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>lessons</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>minimum</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>nurturing</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>potentials</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>risk</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>careful</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>strengthening</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>styles</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>suffer</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>times</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>today</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>two-way</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>voice</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>bringing</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>areas</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>aspects</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>balance</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>independent</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>aptitude</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>regional</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>solving</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>spread</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>supplemental</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>took</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>small-</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>unrecognized</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>whereas</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>sites</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>sharing</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>presentation</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>operating</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>never</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>meager</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>leads</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>leadership</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>large-group</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>force</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>establishment</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>searching</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>scholastic</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>aspect</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>facilitating</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>began</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>begun</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>behalf</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>boys</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>team</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>creation</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>decades</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>denver</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>dozen</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>duke</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>educating</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>exceptionally</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>extracurricular</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>hopkins</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>huge</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>i.e.</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>accessible</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>johns</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>successfully</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>network</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>northwestern</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>old</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>origin</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>precocious</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>private</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>projects</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>best</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>constant</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>blacks</t>
-        </is>
-      </c>
       <c r="ACX1" s="1" t="inlineStr">
         <is>
+          <t>enrollment</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>designated</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>indefensible</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
           <t>midwest</t>
         </is>
       </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>because</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>van</t>
-        </is>
-      </c>
       <c r="ADB1" s="1" t="inlineStr">
         <is>
-          <t>tassel-baska</t>
+          <t>definitions</t>
         </is>
       </c>
       <c r="ADC1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="ADD1" s="1" t="inlineStr">
         <is>
-          <t>surprising</t>
+          <t>deemed</t>
         </is>
       </c>
       <c r="ADE1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>move</t>
         </is>
       </c>
       <c r="ADF1" s="1" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>organized</t>
         </is>
       </c>
       <c r="ADG1" s="1" t="inlineStr">
         <is>
-          <t>rates</t>
+          <t>might</t>
         </is>
       </c>
       <c r="ADH1" s="1" t="inlineStr">
         <is>
-          <t>prillaman</t>
+          <t>place</t>
         </is>
       </c>
       <c r="ADI1" s="1" t="inlineStr">
         <is>
-          <t>patton</t>
+          <t>managed</t>
         </is>
       </c>
       <c r="ADJ1" s="1" t="inlineStr">
         <is>
-          <t>particularly</t>
+          <t>maintaining</t>
         </is>
       </c>
       <c r="ADK1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="ADL1" s="1" t="inlineStr">
         <is>
-          <t>minority-students</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="ADM1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>placed</t>
         </is>
       </c>
       <c r="ADN1" s="1" t="inlineStr">
         <is>
-          <t>matters</t>
+          <t>lose</t>
         </is>
       </c>
       <c r="ADO1" s="1" t="inlineStr">
         <is>
-          <t>efficacy</t>
+          <t>learned</t>
         </is>
       </c>
       <c r="ADP1" s="1" t="inlineStr">
         <is>
-          <t>cities</t>
+          <t>material</t>
         </is>
       </c>
       <c r="ADQ1" s="1" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>promising</t>
         </is>
       </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>absolute</t>
+          <t>guarantee</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>combines</t>
+          <t>grouping</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>continuing</t>
+          <t>appears</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>drop-out</t>
+          <t>allowing</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>dealing</t>
+          <t>allow</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>enrollment</t>
+          <t>affect</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>....</t>
+          <t>advocated</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>indefensible</t>
+          <t>accomplished</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>k-12</t>
+          <t>undoubtedly</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
+          <t>teachers</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>takes</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>simply</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>quiet</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>quest</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>provisions</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>at-risk</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>backwards</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
           <t>call</t>
         </is>
       </c>
-      <c r="AEC1" s="1" t="inlineStr">
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>disastrous</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>examination</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>enormous</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>elimination</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>disappointing</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>changes</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
         <is>
           <t>designing</t>
         </is>
       </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>changes</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>creating</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>potentially</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>consent</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>concerned</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
         <is>
           <t>classrooms</t>
         </is>
       </c>
-      <c r="AEF1" s="1" t="inlineStr">
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>equity</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>dream</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>fourteen</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>rationale</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>research-center</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>sound</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>traditionally</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
         <is>
           <t>underlying</t>
         </is>
       </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>consent</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>creating</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>equity</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>disappointing</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>disastrous</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>effort</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>elimination</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>enormous</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>especially</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>at-risk</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>backwards</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>provide</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>appears</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>allowing</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>panelists</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>underrepresented</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>inaccurately</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>inferring</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>males</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>predicting</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>pronouncing</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>protocols</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>relating</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>populations</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>parts</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>females</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>concerning</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>compare</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>along</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>assumptions</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
+        <is>
+          <t>attempt</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>carried</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>components</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>consumer-oriented</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>organization</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>destination</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>eighth-</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>evaluating</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>encountered</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>interacting</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>lead</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>mission</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>rereading</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>sampling</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>evidenced</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>fact</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>well-validated</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>therefore</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>surprisingly</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>stressful</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
+        <is>
+          <t>entrants</t>
+        </is>
+      </c>
+      <c r="AHH1" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>nonacceferants</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>psychological</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>prospective-study</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>previous</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>evidence</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="AHS1" s="1" t="inlineStr">
         <is>
           <t>administering</t>
         </is>
       </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>grouping</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
+      <c r="AHT1" s="1" t="inlineStr">
+        <is>
+          <t>summarizing</t>
+        </is>
+      </c>
+      <c r="AHU1" s="1" t="inlineStr">
+        <is>
+          <t>tenth-</t>
+        </is>
+      </c>
+      <c r="AHV1" s="1" t="inlineStr">
+        <is>
+          <t>think-aloud</t>
+        </is>
+      </c>
+      <c r="AHW1" s="1" t="inlineStr">
+        <is>
+          <t>twelfth-grade</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="AHY1" s="1" t="inlineStr">
+        <is>
+          <t>watching</t>
+        </is>
+      </c>
+      <c r="AHZ1" s="1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AIA1" s="1" t="inlineStr">
         <is>
           <t>absence</t>
         </is>
       </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>rationale</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>research-center</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>sound</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>traditionally</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>gifted-children</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>accomplished</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>advocated</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>affect</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>allow</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>examination</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>provisions</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>guarantee</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>step</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>teachers</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>undoubtedly</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>ways</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>details</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>designated</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>deserves</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>definitions</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>deemed</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>actions</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>takes</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>simply</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresented</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>learned</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>lose</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>maintaining</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>managed</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>might</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>move</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>organized</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>placed</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>potentially</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>promising</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>quest</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>quiet</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>responded</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>concerned</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>populations</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>tenth-</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>stressful</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>evaluating</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>eighth-</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>think-aloud</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>compare</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>along</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>twelfth-grade</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>psychological</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>prospective-study</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>assumptions</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>attempt</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>base</t>
-        </is>
-      </c>
-      <c r="AHT1" s="1" t="inlineStr">
-        <is>
-          <t>fourteen</t>
-        </is>
-      </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>surprisingly</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
-        <is>
-          <t>watching</t>
-        </is>
-      </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>therefore</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>males</t>
-        </is>
-      </c>
-      <c r="AHZ1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="AIA1" s="1" t="inlineStr">
-        <is>
-          <t>predicting</t>
-        </is>
-      </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>pronouncing</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>protocols</t>
+          <t>deleterious</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>relating</t>
+          <t>beginning</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>rereading</t>
+          <t>california</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>capable</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>conclusive</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>stratified</t>
+          <t>control</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>summarizing</t>
+          <t>controlled</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>well-validated</t>
+          <t>anatyzing</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>inferring</t>
+          <t>words</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>inaccurately</t>
+          <t>three-way</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>mathematical</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>inventive</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>anatyzing</t>
+          <t>quickly</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>home</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>interacting</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>beginning</t>
+          <t>school-identified</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>set-breaking</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>slower</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>slowly</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>consumer-oriented</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>destination</t>
+          <t>studied</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>dream</t>
+          <t>task</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>fifth-grade</t>
         </is>
       </c>
       <c r="AJD1" s="1" t="inlineStr">
         <is>
-          <t>encountered</t>
+          <t>vowel</t>
         </is>
       </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>exhibited</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
         <is>
-          <t>capable</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="AJG1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="AJH1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>eight-</t>
         </is>
       </c>
       <c r="AJI1" s="1" t="inlineStr">
         <is>
-          <t>lead</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="AJJ1" s="1" t="inlineStr">
         <is>
-          <t>mission</t>
+          <t>dictation</t>
         </is>
       </c>
       <c r="AJK1" s="1" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>corresponding</t>
         </is>
       </c>
       <c r="AJL1" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>correspondences</t>
         </is>
       </c>
       <c r="AJM1" s="1" t="inlineStr">
         <is>
-          <t>united-states</t>
+          <t>consonant</t>
         </is>
       </c>
       <c r="AJN1" s="1" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="AJO1" s="1" t="inlineStr">
         <is>
-          <t>three-part</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="AJP1" s="1" t="inlineStr">
         <is>
-          <t>parts</t>
+          <t>capabilities</t>
         </is>
       </c>
       <c r="AJQ1" s="1" t="inlineStr">
         <is>
-          <t>california</t>
+          <t>basal</t>
         </is>
       </c>
       <c r="AJR1" s="1" t="inlineStr">
         <is>
-          <t>shared</t>
+          <t>intet-esting</t>
         </is>
       </c>
       <c r="AJS1" s="1" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>language</t>
         </is>
       </c>
       <c r="AJT1" s="1" t="inlineStr">
         <is>
-          <t>entrants</t>
+          <t>inflexible</t>
         </is>
       </c>
       <c r="AJU1" s="1" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>later</t>
         </is>
       </c>
       <c r="AJV1" s="1" t="inlineStr">
         <is>
-          <t>fact</t>
+          <t>verbally</t>
         </is>
       </c>
       <c r="AJW1" s="1" t="inlineStr">
         <is>
-          <t>evidenced</t>
+          <t>attack</t>
         </is>
       </c>
       <c r="AJX1" s="1" t="inlineStr">
         <is>
-          <t>nonacceferants</t>
+          <t>type</t>
         </is>
       </c>
       <c r="AJY1" s="1" t="inlineStr">
         <is>
-          <t>observed</t>
+          <t>supportive</t>
         </is>
       </c>
       <c r="AJZ1" s="1" t="inlineStr">
         <is>
-          <t>carried</t>
+          <t>spelling</t>
         </is>
       </c>
       <c r="AKA1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>sounds</t>
         </is>
       </c>
       <c r="AKB1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>shown</t>
         </is>
       </c>
       <c r="AKC1" s="1" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>scored</t>
         </is>
       </c>
       <c r="AKD1" s="1" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>retested</t>
         </is>
       </c>
       <c r="AKE1" s="1" t="inlineStr">
         <is>
-          <t>deleterious</t>
+          <t>related</t>
         </is>
       </c>
       <c r="AKF1" s="1" t="inlineStr">
         <is>
-          <t>controlled</t>
+          <t>recognition</t>
         </is>
       </c>
       <c r="AKG1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>reading/written</t>
         </is>
       </c>
       <c r="AKH1" s="1" t="inlineStr">
         <is>
-          <t>conclusive</t>
+          <t>produced</t>
         </is>
       </c>
       <c r="AKI1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>previously</t>
         </is>
       </c>
       <c r="AKJ1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>preschool</t>
         </is>
       </c>
       <c r="AKK1" s="1" t="inlineStr">
         <is>
-          <t>dictation</t>
+          <t>performed</t>
         </is>
       </c>
       <c r="AKL1" s="1" t="inlineStr">
         <is>
-          <t>during</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="AKM1" s="1" t="inlineStr">
         <is>
-          <t>comprehension</t>
+          <t>origmaistudy</t>
         </is>
       </c>
       <c r="AKN1" s="1" t="inlineStr">
         <is>
-          <t>consonant</t>
+          <t>nine-year-old</t>
         </is>
       </c>
       <c r="AKO1" s="1" t="inlineStr">
         <is>
-          <t>entry</t>
+          <t>mid-first-</t>
         </is>
       </c>
       <c r="AKP1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>majority</t>
         </is>
       </c>
       <c r="AKQ1" s="1" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AKR1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>11-year-old</t>
         </is>
       </c>
       <c r="AKS1" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AKT1" s="1" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>letters</t>
         </is>
       </c>
       <c r="AKU1" s="1" t="inlineStr">
         <is>
-          <t>basal</t>
+          <t>criterion</t>
         </is>
       </c>
       <c r="AKV1" s="1" t="inlineStr">
         <is>
-          <t>fifth-grade</t>
+          <t>letter-sound</t>
         </is>
       </c>
       <c r="AKW1" s="1" t="inlineStr">
         <is>
-          <t>capabilities</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>exhibited</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>eight-</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>set-breaking</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>higher</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>verbally</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>vowel</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>words</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>11-year-old</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>corresponding</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
           <t>accuracy</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>criterion</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>inflexible</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>intet-esting</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
-          <t>mathematical</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>quickly</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>school-identified</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>three-way</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>slowly</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>slower</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>supportive</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>spelling</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>sounds</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>origmaistudy</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>inventive</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>later</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>letter-sound</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="AMH1" s="1" t="inlineStr">
-        <is>
-          <t>letters</t>
-        </is>
-      </c>
-      <c r="AMI1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="AMJ1" s="1" t="inlineStr">
-        <is>
-          <t>mid-first-</t>
-        </is>
-      </c>
-      <c r="AMK1" s="1" t="inlineStr">
-        <is>
-          <t>nine-year-old</t>
-        </is>
-      </c>
-      <c r="AML1" s="1" t="inlineStr">
-        <is>
-          <t>participated</t>
-        </is>
-      </c>
-      <c r="AMM1" s="1" t="inlineStr">
-        <is>
-          <t>shown</t>
-        </is>
-      </c>
-      <c r="AMN1" s="1" t="inlineStr">
-        <is>
-          <t>performed</t>
-        </is>
-      </c>
-      <c r="AMO1" s="1" t="inlineStr">
-        <is>
-          <t>preschool</t>
-        </is>
-      </c>
-      <c r="AMP1" s="1" t="inlineStr">
-        <is>
-          <t>previously</t>
-        </is>
-      </c>
-      <c r="AMQ1" s="1" t="inlineStr">
-        <is>
-          <t>produced</t>
-        </is>
-      </c>
-      <c r="AMR1" s="1" t="inlineStr">
-        <is>
-          <t>reading/written</t>
-        </is>
-      </c>
-      <c r="AMS1" s="1" t="inlineStr">
-        <is>
-          <t>recognition</t>
-        </is>
-      </c>
-      <c r="AMT1" s="1" t="inlineStr">
-        <is>
-          <t>related</t>
-        </is>
-      </c>
-      <c r="AMU1" s="1" t="inlineStr">
-        <is>
-          <t>retested</t>
-        </is>
-      </c>
-      <c r="AMV1" s="1" t="inlineStr">
-        <is>
-          <t>scored</t>
-        </is>
-      </c>
-      <c r="AMW1" s="1" t="inlineStr">
-        <is>
-          <t>correspondences</t>
         </is>
       </c>
     </row>
@@ -5627,178 +5367,178 @@
         <v>1991</v>
       </c>
       <c r="D2" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="E2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.45</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.39</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="I2" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
         <v>1.08</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>0.85</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.85</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.85</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7899999999999999</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="X2" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7200000000000002</v>
+        <v>0.68</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.67</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.66</v>
+        <v>0.6300000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.65</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="BC2" t="n">
         <v>0.49</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="BJ2" t="n">
         <v>0.48</v>
@@ -5810,34 +5550,34 @@
         <v>0.48</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BU2" t="n">
         <v>0.46</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BW2" t="n">
         <v>0.45</v>
@@ -5846,16 +5586,16 @@
         <v>0.45</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="CC2" t="n">
         <v>0.44</v>
@@ -5864,7 +5604,7 @@
         <v>0.44</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="CF2" t="n">
         <v>0.43</v>
@@ -5879,508 +5619,508 @@
         <v>0.43</v>
       </c>
       <c r="CJ2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CO2" t="n">
         <v>0.42</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CP2" t="n">
         <v>0.42</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CQ2" t="n">
         <v>0.42</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CR2" t="n">
         <v>0.42</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CS2" t="n">
         <v>0.42</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CT2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CZ2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DA2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DB2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DC2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DD2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DE2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DF2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DG2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="DH2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="DI2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DJ2" t="n">
         <v>0.41</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DK2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DL2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DM2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DN2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DO2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DP2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DQ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DR2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DS2" t="n">
         <v>0.4</v>
       </c>
-      <c r="DH2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.39</v>
-      </c>
       <c r="DT2" t="n">
-        <v>0.39</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.39</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.33</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="II2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="IV2" t="n">
         <v>0.22</v>
@@ -6404,61 +6144,61 @@
         <v>0.22</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="JV2" t="n">
         <v>0.21</v>
@@ -6515,37 +6255,37 @@
         <v>0.21</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="KY2" t="n">
         <v>0.2</v>
@@ -6554,88 +6294,88 @@
         <v>0.2</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="MC2" t="n">
         <v>0.18</v>
@@ -6677,16 +6417,16 @@
         <v>0.18</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="MT2" t="n">
         <v>0.17</v>
@@ -6701,82 +6441,82 @@
         <v>0.17</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="NX2" t="n">
         <v>0.16</v>
@@ -7070,43 +6810,43 @@
         <v>0.15</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="SD2" t="n">
         <v>0.14</v>
@@ -7136,112 +6876,112 @@
         <v>0.14</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TC2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TD2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TE2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TF2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TG2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TH2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TI2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TJ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TK2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TL2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TM2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TN2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TO2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TP2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TV2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="TW2" t="n">
         <v>0.13</v>
@@ -7379,193 +7119,193 @@
         <v>0.13</v>
       </c>
       <c r="VP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VS2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VT2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VW2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="VZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="WN2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WO2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WP2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WQ2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WR2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WS2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WT2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WU2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WV2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WW2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WX2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WY2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="WZ2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="XA2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="XB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="XZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="YA2" t="n">
         <v>0.11</v>
@@ -7970,73 +7710,73 @@
         <v>0.11</v>
       </c>
       <c r="ADE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AEB2" t="n">
         <v>0.1</v>
@@ -8384,151 +8124,151 @@
         <v>0.1</v>
       </c>
       <c r="AIM2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIN2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIO2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIP2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIR2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIT2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIU2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIV2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIW2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIX2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIY2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AIZ2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJA2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJB2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJC2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJD2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJE2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJF2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJG2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJH2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJI2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJJ2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJK2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJL2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJM2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJN2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJO2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJP2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJQ2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJR2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJS2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJT2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJU2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJV2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJW2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJX2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJY2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AJZ2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKA2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKB2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKC2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKD2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKE2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKF2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKG2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKH2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKI2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AKJ2" t="n">
         <v>0.08</v>
@@ -8570,162 +8310,6 @@
         <v>0.08</v>
       </c>
       <c r="AKW2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALS2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALY2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="ALZ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AML2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMN2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMO2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMP2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMQ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMR2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMS2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMT2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMU2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMV2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AMW2" t="n">
         <v>0.08</v>
       </c>
     </row>
